--- a/StructureDefinition-openimis-payment-notice.xlsx
+++ b/StructureDefinition-openimis-payment-notice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>84</v>

--- a/StructureDefinition-openimis-payment-notice.xlsx
+++ b/StructureDefinition-openimis-payment-notice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-payment-notice.xlsx
+++ b/StructureDefinition-openimis-payment-notice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>84</v>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>84</v>

--- a/StructureDefinition-openimis-payment-notice.xlsx
+++ b/StructureDefinition-openimis-payment-notice.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-payment-notice.xlsx
+++ b/StructureDefinition-openimis-payment-notice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
